--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
     <sheet name="Dezembro" sheetId="2" r:id="rId2"/>
     <sheet name="Janeiro" sheetId="3" r:id="rId3"/>
+    <sheet name="Fevereiro" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -191,14 +192,33 @@
   </si>
   <si>
     <t>bonecos naruto - Aliexpress</t>
+  </si>
+  <si>
+    <t>Compras 02/2021</t>
+  </si>
+  <si>
+    <t>Cartão SD</t>
+  </si>
+  <si>
+    <t>Capa flip iPhone 5s</t>
+  </si>
+  <si>
+    <t>Violino elétrico</t>
+  </si>
+  <si>
+    <t>Organizador de cabos</t>
+  </si>
+  <si>
+    <t>IPTU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -268,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -290,6 +310,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -576,7 +600,88 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="466724"/>
+          <a:off x="5953125" y="466724"/>
+          <a:ext cx="876300" cy="840429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896226" y="390525"/>
+          <a:ext cx="914400" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="409574"/>
           <a:ext cx="876300" cy="840429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1240,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1385,7 @@
       </c>
       <c r="F2" s="3">
         <f>SUM(B2:B29)</f>
-        <v>1707.15</v>
+        <v>1926.15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,7 +1476,7 @@
       </c>
       <c r="F11" s="3">
         <f>SUM(C2:C23)</f>
-        <v>765.01</v>
+        <v>546.01</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1499,7 @@
       <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1">
+      <c r="B14" s="1">
         <v>124</v>
       </c>
     </row>
@@ -1402,7 +1507,7 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1">
         <v>95</v>
       </c>
     </row>
@@ -1420,6 +1525,141 @@
       </c>
       <c r="C17" s="1">
         <v>77.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1">
+        <v>65.69</v>
+      </c>
+      <c r="F2" s="10">
+        <f>SUM(B:B)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>44</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="10">
+        <v>109</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10">
+        <v>32.89</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10">
+        <v>64.34</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10">
+        <v>640</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10">
+        <v>631.52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="10">
+        <f>SUM(C:C)</f>
+        <v>1619.44</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>IPTU</t>
+  </si>
+  <si>
+    <t>Blusas mãe</t>
   </si>
 </sst>
 </file>
@@ -304,16 +307,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1037,13 +1040,13 @@
       <c r="B6" s="1">
         <v>120</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1052,11 +1055,11 @@
       <c r="B7" s="1">
         <v>56</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1065,11 +1068,11 @@
       <c r="B8" s="1">
         <v>150</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1078,11 +1081,11 @@
       <c r="B9" s="1">
         <v>44</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1251,10 +1254,10 @@
       <c r="B7" s="1">
         <v>20.98</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1263,8 +1266,8 @@
       <c r="B8" s="1">
         <v>496.84</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1273,8 +1276,8 @@
       <c r="B9" s="1">
         <v>33.89</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1286,8 +1289,8 @@
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1296,8 +1299,8 @@
       <c r="B11" s="1">
         <v>155.31</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1395,10 +1398,10 @@
       <c r="B3" s="1">
         <v>65</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1407,8 +1410,8 @@
       <c r="C4" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1417,8 +1420,8 @@
       <c r="C5" s="1">
         <v>44</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1427,8 +1430,8 @@
       <c r="B6" s="1">
         <v>466.77</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1437,8 +1440,8 @@
       <c r="B7" s="1">
         <v>571.36</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1541,34 +1544,34 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1579,9 +1582,9 @@
       <c r="C2" s="1">
         <v>65.69</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>0</v>
+        <v>665.16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1592,56 +1595,56 @@
       <c r="C3" s="1">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="10">
+      <c r="B5" s="8">
         <v>32.89</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10">
-        <v>640</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="8">
+        <v>467.75</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>32</v>
       </c>
     </row>
@@ -1649,7 +1652,7 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>631.52</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1657,9 +1660,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8">
+        <v>164.52</v>
+      </c>
+      <c r="F10" s="8">
         <f>SUM(C:C)</f>
-        <v>1619.44</v>
+        <v>946.55</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>Blusas mãe</t>
+  </si>
+  <si>
+    <t>Balança digital</t>
+  </si>
+  <si>
+    <t>Motorola One</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1674,23 @@
       </c>
       <c r="F10" s="8">
         <f>SUM(C:C)</f>
-        <v>946.55</v>
+        <v>1872.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Motorola One</t>
+  </si>
+  <si>
+    <t>PosEAD</t>
   </si>
 </sst>
 </file>
@@ -1547,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1593,7 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>665.16</v>
+        <v>2187.41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,7 +1661,7 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8">
+      <c r="B9" s="8">
         <v>631.52</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1674,7 +1677,7 @@
       </c>
       <c r="F10" s="8">
         <f>SUM(C:C)</f>
-        <v>1872.55</v>
+        <v>391.03</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,8 +1692,16 @@
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="8">
-        <v>850</v>
+      <c r="B12" s="8">
+        <v>679.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8">
+        <v>210.83</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>PosEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placa de Video </t>
+  </si>
+  <si>
+    <t>Adaptador Dvi / Vga</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>2187.41</v>
+        <v>2288.21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,6 +1708,22 @@
       </c>
       <c r="B13" s="8">
         <v>210.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20.8</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Adaptador Dvi / Vga</t>
+  </si>
+  <si>
+    <t>Adaptador Dvi DM 59 / Vga</t>
   </si>
 </sst>
 </file>
@@ -1556,15 +1559,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -1599,7 +1602,7 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>2288.21</v>
+        <v>2382.11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,6 +1727,14 @@
       </c>
       <c r="B15" s="8">
         <v>20.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="8">
+        <v>93.9</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
     <sheet name="Dezembro" sheetId="2" r:id="rId2"/>
     <sheet name="Janeiro" sheetId="3" r:id="rId3"/>
     <sheet name="Fevereiro" sheetId="4" r:id="rId4"/>
+    <sheet name="Março" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -231,6 +232,9 @@
   </si>
   <si>
     <t>Adaptador Dvi DM 59 / Vga</t>
+  </si>
+  <si>
+    <t>PosEad - Big Data</t>
   </si>
 </sst>
 </file>
@@ -715,6 +719,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953251" y="200025"/>
+          <a:ext cx="914400" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="209549"/>
+          <a:ext cx="876300" cy="840429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1561,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,4 +1829,101 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="0.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8">
+        <v>210.83</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(B:B)</f>
+        <v>210.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8">
+        <v>64.34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="8">
+        <f>SUM(C:C)</f>
+        <v>283.02999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>PosEad - Big Data</t>
+  </si>
+  <si>
+    <t>Chip Fluke</t>
+  </si>
+  <si>
+    <t>Loterias CEF</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1653,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1693,7 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>2382.11</v>
+        <v>2382.02</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1718,7 +1724,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="8">
-        <v>32.89</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1833,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,7 +1883,7 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>210.83</v>
+        <v>398.30000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,8 +1907,8 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="8">
-        <v>109</v>
+      <c r="B5" s="8">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,9 +1923,23 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8">
+        <v>26.97</v>
+      </c>
       <c r="F7" s="8">
         <f>SUM(C:C)</f>
-        <v>283.02999999999997</v>
+        <v>174.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8">
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="613" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,27 @@
     <sheet name="Fevereiro" sheetId="4" r:id="rId4"/>
     <sheet name="Março" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Não gasto</t>
+  </si>
+  <si>
+    <t>Total Gasto</t>
+  </si>
+  <si>
+    <t>À Gastar</t>
+  </si>
   <si>
     <t>kit placa mae + processador + memoria</t>
   </si>
@@ -45,6 +55,9 @@
     <t xml:space="preserve">teclado com led </t>
   </si>
   <si>
+    <t>Compras 11/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">mouse com led </t>
   </si>
   <si>
@@ -60,19 +73,7 @@
     <t xml:space="preserve">hub micro usb tablet </t>
   </si>
   <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Total Gasto</t>
-  </si>
-  <si>
-    <t>Não gasto</t>
-  </si>
-  <si>
-    <t>Compras 11/2020</t>
+    <t>tela iphone 5s</t>
   </si>
   <si>
     <t>vaso action figure</t>
@@ -81,12 +82,6 @@
     <t>perfume Luck</t>
   </si>
   <si>
-    <t>À Gastar</t>
-  </si>
-  <si>
-    <t>tela iphone 5s</t>
-  </si>
-  <si>
     <t>camiseta aliexpress</t>
   </si>
   <si>
@@ -96,6 +91,9 @@
     <t>Surface Pro I</t>
   </si>
   <si>
+    <t>Observação</t>
+  </si>
+  <si>
     <t>Jogo da Mesada</t>
   </si>
   <si>
@@ -114,6 +112,9 @@
     <t>Cartão SD Shopee</t>
   </si>
   <si>
+    <t>Compras 12/2020</t>
+  </si>
+  <si>
     <t>Placa mãe Xiaomi note 8 pro</t>
   </si>
   <si>
@@ -123,15 +124,9 @@
     <t>Samurai Jack Steam</t>
   </si>
   <si>
-    <t>Observação</t>
-  </si>
-  <si>
     <t>Promoção válido 05/01</t>
   </si>
   <si>
-    <t>Compras 12/2020</t>
-  </si>
-  <si>
     <t>Teclado bluetooh aliexpress</t>
   </si>
   <si>
@@ -156,15 +151,18 @@
     <t>Compras 01/2021</t>
   </si>
   <si>
+    <t>Teclado Notebook Compaq CQ40</t>
+  </si>
+  <si>
     <t>Desodorante kaik urbe</t>
   </si>
   <si>
+    <t>IPVA e Licenciamento Celta</t>
+  </si>
+  <si>
     <t>IPVA Prisma</t>
   </si>
   <si>
-    <t>IPVA e Licenciamento Celta</t>
-  </si>
-  <si>
     <t>Aliexpress Mãe</t>
   </si>
   <si>
@@ -180,18 +178,15 @@
     <t>Bateria Notebook Compaq CQ40</t>
   </si>
   <si>
-    <t>Teclado Notebook Compaq CQ40</t>
-  </si>
-  <si>
     <t>cinta modeladora</t>
   </si>
   <si>
+    <t>bateria sony xa1 - Aliexpress</t>
+  </si>
+  <si>
     <t>cartão sd 128 gb</t>
   </si>
   <si>
-    <t>bateria sony xa1 - Aliexpress</t>
-  </si>
-  <si>
     <t>bonecos naruto - Aliexpress</t>
   </si>
   <si>
@@ -241,6 +236,24 @@
   </si>
   <si>
     <t>Loterias CEF</t>
+  </si>
+  <si>
+    <t>Rifa templo</t>
+  </si>
+  <si>
+    <t>Memoria 2gb 1333Mhz</t>
+  </si>
+  <si>
+    <t>Pendrive 32Gb</t>
+  </si>
+  <si>
+    <t>Earth Defense - Steam</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Compras 03/2021</t>
   </si>
 </sst>
 </file>
@@ -248,54 +261,52 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;&quot;-R$&quot;* #,##0.00_-;_-&quot;R$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,39 +326,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,78 +379,166 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="1033" name="Imagem 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8067676" y="1066801"/>
-          <a:ext cx="914400" cy="853440"/>
+          <a:off x="8963025" y="876300"/>
+          <a:ext cx="857250" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>971550</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>135579</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="1034" name="Imagem 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5219700" y="1200150"/>
-          <a:ext cx="876300" cy="840429"/>
+          <a:off x="5267325" y="1009650"/>
+          <a:ext cx="828675" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -446,116 +548,248 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2061" name="Imagem 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8915401" y="1171575"/>
-          <a:ext cx="914400" cy="853440"/>
+          <a:off x="8963025" y="1162050"/>
+          <a:ext cx="857250" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>154628</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="2062" name="Imagem 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6038850" y="1219199"/>
-          <a:ext cx="876300" cy="840429"/>
+          <a:off x="6096000" y="1219200"/>
+          <a:ext cx="885825" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1066999</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>181129</xdr:rowOff>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="2063" name="Imagem 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7134225" y="2124075"/>
-          <a:ext cx="1428949" cy="1105054"/>
+          <a:off x="7191375" y="2114550"/>
+          <a:ext cx="1352550" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -565,78 +799,166 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="3081" name="Imagem 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8772526" y="304800"/>
-          <a:ext cx="914400" cy="853440"/>
+          <a:off x="9001125" y="304800"/>
+          <a:ext cx="857250" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>164153</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3082" name="Imagem 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5953125" y="466724"/>
-          <a:ext cx="876300" cy="840429"/>
+          <a:off x="6010275" y="466725"/>
+          <a:ext cx="838200" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -646,78 +968,166 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="4105" name="Imagem 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7896226" y="390525"/>
-          <a:ext cx="914400" cy="853440"/>
+          <a:off x="8458200" y="381000"/>
+          <a:ext cx="66675" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>107003</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="4106" name="Imagem 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4772025" y="409574"/>
-          <a:ext cx="876300" cy="840429"/>
+          <a:off x="4972050" y="400050"/>
+          <a:ext cx="828675" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -727,78 +1137,166 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="5129" name="Imagem 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6953251" y="200025"/>
-          <a:ext cx="914400" cy="853440"/>
+          <a:off x="8048625" y="323850"/>
+          <a:ext cx="914400" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>97478</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="5130" name="Imagem 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4476750" y="209549"/>
-          <a:ext cx="876300" cy="840429"/>
+          <a:off x="5162550" y="438150"/>
+          <a:ext cx="828675" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1057,7 +1555,92 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1075,198 +1658,202 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>400</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <f>SUM(B2:B22)</f>
         <v>2809.58</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <f>SUM(C2:C22)</f>
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>64.78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>56</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>150</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>56</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>150</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1450</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="E6:I9"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1278,178 +1865,182 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
         <v>88.8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <f>SUM(B2:B21)</f>
         <v>1754.25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <f>SUM(C2:C21)</f>
         <v>87.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
         <v>144.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
         <v>211.11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
         <v>43.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
         <v>20.98</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>496.84</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33.89</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>52.84</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1">
-        <v>496.84</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1">
-        <v>33.89</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1">
-        <v>52.84</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>155.31</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>69.28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>235.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>82.9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>87.2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="F7:G11"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1461,189 +2052,193 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>65.69</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <f>SUM(B2:B29)</f>
         <v>1926.15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
         <v>44</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>466.77</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
         <v>571.36</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2">
         <v>222.72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>54.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
         <v>167.8</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
         <v>120</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <f>SUM(C2:C23)</f>
         <v>546.01</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
         <v>38.700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>77.42</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="F3:G7"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1653,42 +2248,43 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>65.69</v>
       </c>
       <c r="F2" s="8">
@@ -1697,60 +2293,60 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="8">
         <v>467.75</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="8">
@@ -1758,18 +2354,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="8">
         <v>631.52</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="8">
@@ -1781,7 +2377,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="8">
@@ -1789,7 +2385,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="8">
@@ -1797,7 +2393,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="8">
@@ -1805,7 +2401,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="8">
@@ -1813,7 +2409,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="8">
@@ -1821,7 +2417,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="8">
@@ -1829,53 +2425,57 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="F3:G7"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="0.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="8">
@@ -1883,67 +2483,114 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>398.30000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>746.43000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>65.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="8">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="8">
-        <v>64.34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B6" s="8">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B7" s="8">
-        <v>26.97</v>
-      </c>
-      <c r="F7" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="8">
+        <v>150</v>
+      </c>
+      <c r="F8" s="8">
         <f>SUM(C:C)</f>
-        <v>174.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8">
-        <v>34.5</v>
+        <v>109.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="8">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="8">
+        <v>51.81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t xml:space="preserve">Produto</t>
   </si>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Aliexpress mãe</t>
   </si>
   <si>
-    <t xml:space="preserve">Mouse pad</t>
+    <t xml:space="preserve">Mouse pad led</t>
   </si>
   <si>
     <t xml:space="preserve">Placa de Vídeo</t>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pilha controle garagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse pad simples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa de Som PC</t>
   </si>
 </sst>
 </file>
@@ -464,9 +470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>551880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -479,8 +485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9469080" y="876240"/>
-          <a:ext cx="889920" cy="847440"/>
+          <a:off x="9468360" y="876240"/>
+          <a:ext cx="889560" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,9 +507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>971280</xdr:colOff>
+      <xdr:colOff>970920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -516,8 +522,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5565600" y="1009440"/>
-          <a:ext cx="828360" cy="847440"/>
+          <a:off x="5564880" y="1009440"/>
+          <a:ext cx="828000" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,9 +549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -559,7 +565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9483480" y="1162080"/>
-          <a:ext cx="889920" cy="866160"/>
+          <a:ext cx="889560" cy="865800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,9 +586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,7 +602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6440760" y="1219320"/>
-          <a:ext cx="945360" cy="847080"/>
+          <a:ext cx="945000" cy="846720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,9 +623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1037880</xdr:colOff>
+      <xdr:colOff>1037520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -633,7 +639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7595640" y="2114280"/>
-          <a:ext cx="1385280" cy="1142640"/>
+          <a:ext cx="1384920" cy="1142280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,9 +665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
+      <xdr:colOff>361440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -675,7 +681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9521280" y="304920"/>
-          <a:ext cx="889920" cy="847440"/>
+          <a:ext cx="889560" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -696,9 +702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>894960</xdr:colOff>
+      <xdr:colOff>894600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,7 +718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6356880" y="466560"/>
-          <a:ext cx="837720" cy="866520"/>
+          <a:ext cx="837360" cy="866160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -738,9 +744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -753,8 +759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8935560" y="380880"/>
-          <a:ext cx="66240" cy="866520"/>
+          <a:off x="8934840" y="380880"/>
+          <a:ext cx="65880" cy="866160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,9 +781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>875880</xdr:colOff>
+      <xdr:colOff>875520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -791,7 +797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5258880" y="399960"/>
-          <a:ext cx="828360" cy="847440"/>
+          <a:ext cx="828000" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,9 +823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,8 +838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8474760" y="323640"/>
-          <a:ext cx="996840" cy="761400"/>
+          <a:off x="8476560" y="323640"/>
+          <a:ext cx="996840" cy="761040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,9 +860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,8 +875,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5443200" y="438120"/>
-          <a:ext cx="896760" cy="752400"/>
+          <a:off x="5444280" y="438120"/>
+          <a:ext cx="897480" cy="752040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,10 +1706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1711,8 +1717,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="0.29"/>
@@ -1745,7 +1751,7 @@
       </c>
       <c r="F2" s="10" t="n">
         <f aca="false">SUM(B:B)</f>
-        <v>941.66</v>
+        <v>1069.89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1883,6 +1889,22 @@
       </c>
       <c r="B17" s="10" t="n">
         <v>26.8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>43.62</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>84.61</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Novembro" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Dezembro" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Janeiro" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Fevereiro" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Março" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Novembro" sheetId="1" r:id="rId1"/>
+    <sheet name="Dezembro" sheetId="2" r:id="rId2"/>
+    <sheet name="Janeiro" sheetId="3" r:id="rId3"/>
+    <sheet name="Fevereiro" sheetId="4" r:id="rId4"/>
+    <sheet name="Março" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,22 +30,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
-    <t xml:space="preserve">Produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não gasto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Gasto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À Gastar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kit placa mae + processador + memoria</t>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Não gasto</t>
+  </si>
+  <si>
+    <t>Total Gasto</t>
+  </si>
+  <si>
+    <t>À Gastar</t>
+  </si>
+  <si>
+    <t>kit placa mae + processador + memoria</t>
   </si>
   <si>
     <t xml:space="preserve">tela iphone 6s Aliexpress </t>
@@ -56,13 +60,13 @@
     <t xml:space="preserve">teclado com led </t>
   </si>
   <si>
-    <t xml:space="preserve">Compras 11/2020</t>
+    <t>Compras 11/2020</t>
   </si>
   <si>
     <t xml:space="preserve">mouse com led </t>
   </si>
   <si>
-    <t xml:space="preserve">chassi iphone 5s</t>
+    <t>chassi iphone 5s</t>
   </si>
   <si>
     <t xml:space="preserve">cabo displayport </t>
@@ -74,240 +78,224 @@
     <t xml:space="preserve">hub micro usb tablet </t>
   </si>
   <si>
-    <t xml:space="preserve">tela iphone 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaso action figure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfume Luck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">camiseta aliexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reloógio retro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Pro I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogo da Mesada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonte PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tela iPhone 5s branco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encosto Ortopédico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loterias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartão SD Shopee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras 12/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placa mãe Xiaomi note 8 pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capa Xiaomi note 8 pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samurai Jack Steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promoção válido 05/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teclado bluetooh aliexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suporte Surface pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaveador KVM Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livro Código Limpo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mochila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampa traseira Xiaomi note 8 pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras 01/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teclado Notebook Compaq CQ40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desodorante kaik urbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPVA e Licenciamento Celta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPVA Prisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliexpress Mãe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera frontal Xiaomi note 8 pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leitor biometrico Xioami note 8 pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chave seletora VGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bateria Notebook Compaq CQ40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinta modeladora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bateria sony xa1 - Aliexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cartão sd 128 gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonecos naruto - Aliexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras 02/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartão SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capa flip iPhone 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Violino elétrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizador de cabos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blusas mãe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balança digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorola One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PosEAD</t>
+    <t>tela iphone 5s</t>
+  </si>
+  <si>
+    <t>vaso action figure</t>
+  </si>
+  <si>
+    <t>perfume Luck</t>
+  </si>
+  <si>
+    <t>camiseta aliexpress</t>
+  </si>
+  <si>
+    <t>reloógio retro</t>
+  </si>
+  <si>
+    <t>Surface Pro I</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Jogo da Mesada</t>
+  </si>
+  <si>
+    <t>Fonte PC</t>
+  </si>
+  <si>
+    <t>Tela iPhone 5s branco</t>
+  </si>
+  <si>
+    <t>Encosto Ortopédico</t>
+  </si>
+  <si>
+    <t>Loterias</t>
+  </si>
+  <si>
+    <t>Cartão SD Shopee</t>
+  </si>
+  <si>
+    <t>Compras 12/2020</t>
+  </si>
+  <si>
+    <t>Placa mãe Xiaomi note 8 pro</t>
+  </si>
+  <si>
+    <t>Capa Xiaomi note 8 pro</t>
+  </si>
+  <si>
+    <t>Samurai Jack Steam</t>
+  </si>
+  <si>
+    <t>Promoção válido 05/01</t>
+  </si>
+  <si>
+    <t>Teclado bluetooh aliexpress</t>
+  </si>
+  <si>
+    <t>Suporte Surface pro</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Chaveador KVM Switch</t>
+  </si>
+  <si>
+    <t>Livro Código Limpo</t>
+  </si>
+  <si>
+    <t>Mochila</t>
+  </si>
+  <si>
+    <t>Tampa traseira Xiaomi note 8 pro</t>
+  </si>
+  <si>
+    <t>Compras 01/2021</t>
+  </si>
+  <si>
+    <t>Teclado Notebook Compaq CQ40</t>
+  </si>
+  <si>
+    <t>Desodorante kaik urbe</t>
+  </si>
+  <si>
+    <t>IPVA e Licenciamento Celta</t>
+  </si>
+  <si>
+    <t>IPVA Prisma</t>
+  </si>
+  <si>
+    <t>Aliexpress Mãe</t>
+  </si>
+  <si>
+    <t>Camera frontal Xiaomi note 8 pro</t>
+  </si>
+  <si>
+    <t>Leitor biometrico Xioami note 8 pro</t>
+  </si>
+  <si>
+    <t>Chave seletora VGA</t>
+  </si>
+  <si>
+    <t>Bateria Notebook Compaq CQ40</t>
+  </si>
+  <si>
+    <t>cinta modeladora</t>
+  </si>
+  <si>
+    <t>bateria sony xa1 - Aliexpress</t>
+  </si>
+  <si>
+    <t>cartão sd 128 gb</t>
+  </si>
+  <si>
+    <t>bonecos naruto - Aliexpress</t>
+  </si>
+  <si>
+    <t>Compras 02/2021</t>
+  </si>
+  <si>
+    <t>Cartão SD</t>
+  </si>
+  <si>
+    <t>Capa flip iPhone 5s</t>
+  </si>
+  <si>
+    <t>Violino elétrico</t>
+  </si>
+  <si>
+    <t>Organizador de cabos</t>
+  </si>
+  <si>
+    <t>IPTU</t>
+  </si>
+  <si>
+    <t>Blusas mãe</t>
+  </si>
+  <si>
+    <t>Balança digital</t>
+  </si>
+  <si>
+    <t>Motorola One</t>
+  </si>
+  <si>
+    <t>PosEAD</t>
   </si>
   <si>
     <t xml:space="preserve">Placa de Video </t>
   </si>
   <si>
-    <t xml:space="preserve">Adaptador Dvi / Vga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptador Dvi DM 59 / Vga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PosEad - Big Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras 03/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chip Fluke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loterias CEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rifa templo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memoria 2gb 1333Mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendrive 32Gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth Defense - Steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aliexpress mãe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouse pad led</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placa de Vídeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD 500 GB SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilha controle garagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouse pad simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa de Som PC</t>
+    <t>Adaptador Dvi / Vga</t>
+  </si>
+  <si>
+    <t>Adaptador Dvi DM 59 / Vga</t>
+  </si>
+  <si>
+    <t>PosEad - Big Data</t>
+  </si>
+  <si>
+    <t>Compras 03/2021</t>
+  </si>
+  <si>
+    <t>Chip Fluke</t>
+  </si>
+  <si>
+    <t>Loterias CEF</t>
+  </si>
+  <si>
+    <t>Rifa templo</t>
+  </si>
+  <si>
+    <t>Memoria 2gb 1333Mhz</t>
+  </si>
+  <si>
+    <t>Pendrive 32Gb</t>
+  </si>
+  <si>
+    <t>Earth Defense - Steam</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Aliexpress mãe</t>
+  </si>
+  <si>
+    <t>Mouse pad led</t>
+  </si>
+  <si>
+    <t>Placa de Vídeo</t>
+  </si>
+  <si>
+    <t>HD 500 GB SSD</t>
+  </si>
+  <si>
+    <t>Pilha controle garagem</t>
+  </si>
+  <si>
+    <t>Mouse pad simples</t>
+  </si>
+  <si>
+    <t>Caixa de Som PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;* #,##0.00_-;&quot;-R$&quot;* #,##0.00_-;_-&quot;R$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;&quot;-R$&quot;* #,##0.00_-;_-&quot;R$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -317,7 +305,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -325,7 +313,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -333,7 +321,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -357,7 +345,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -365,103 +353,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266760</xdr:colOff>
@@ -476,11 +421,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagem 1" descr=""/>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -498,7 +443,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142920</xdr:colOff>
@@ -513,11 +458,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Imagem 2" descr=""/>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -539,8 +484,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28440</xdr:colOff>
@@ -555,11 +500,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr=""/>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -577,7 +522,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>181080</xdr:colOff>
@@ -592,11 +537,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr=""/>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -614,7 +559,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
@@ -629,11 +574,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr=""/>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -655,8 +600,8 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76320</xdr:colOff>
@@ -671,11 +616,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 1" descr=""/>
+        <xdr:cNvPr id="5" name="Imagem 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -693,7 +638,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57240</xdr:colOff>
@@ -708,11 +653,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 2" descr=""/>
+        <xdr:cNvPr id="6" name="Imagem 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -734,8 +679,8 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>247680</xdr:colOff>
@@ -750,11 +695,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 1" descr=""/>
+        <xdr:cNvPr id="7" name="Imagem 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -772,7 +717,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47520</xdr:colOff>
@@ -787,11 +732,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 2" descr=""/>
+        <xdr:cNvPr id="8" name="Imagem 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -813,8 +758,8 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>743040</xdr:colOff>
@@ -829,11 +774,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 1" descr=""/>
+        <xdr:cNvPr id="9" name="Imagem 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -851,7 +796,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352440</xdr:colOff>
@@ -866,11 +811,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 2" descr=""/>
+        <xdr:cNvPr id="10" name="Imagem 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -891,201 +836,459 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="8.57"/>
+    <col min="1" max="1" width="45" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="3"/>
+    <col min="7" max="7" width="22.42578125" style="3" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4">
         <v>400</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">SUM(B2:B22)</f>
+      <c r="E2" s="8">
+        <f>SUM(B2:B22)</f>
         <v>2809.58</v>
       </c>
-      <c r="G2" s="6" t="n">
-        <f aca="false">SUM(C2:C22)</f>
+      <c r="G2" s="8">
+        <f>SUM(C2:C22)</f>
         <v>286</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4">
         <v>64.78</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4">
         <v>120</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4">
         <v>56</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4">
         <v>150</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4">
         <v>44</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="4">
         <v>52.8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="4">
         <v>1450</v>
       </c>
     </row>
@@ -1093,192 +1296,184 @@
   <mergeCells count="1">
     <mergeCell ref="E6:I9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="8.57"/>
+    <col min="1" max="1" width="32.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="3"/>
+    <col min="7" max="7" width="21.42578125" style="3" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4">
         <v>88.8</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">SUM(B2:B21)</f>
+      <c r="E2" s="8">
+        <f>SUM(B2:B21)</f>
         <v>1754.25</v>
       </c>
-      <c r="G2" s="6" t="n">
-        <f aca="false">SUM(C2:C21)</f>
+      <c r="G2" s="8">
+        <f>SUM(C2:C21)</f>
         <v>87.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4">
         <v>144.9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4">
         <v>211.11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4">
         <v>43.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4">
         <v>20.98</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4">
         <v>496.84</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4">
         <v>33.89</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4">
         <v>52.84</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4">
         <v>155.31</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="4">
         <v>69.28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="4">
         <v>235.9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="4">
         <v>82.9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="4">
         <v>87.2</v>
       </c>
     </row>
@@ -1286,204 +1481,196 @@
   <mergeCells count="1">
     <mergeCell ref="F7:G11"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.57"/>
+    <col min="1" max="1" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="3" customWidth="1"/>
+    <col min="7" max="1024" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4">
         <v>65.69</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <f aca="false">SUM(B2:B29)</f>
+      <c r="F2" s="8">
+        <f>SUM(B2:B29)</f>
         <v>1926.15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4">
         <v>65</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="4">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4">
         <v>44</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4">
         <v>466.77</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4">
         <v>571.36</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4">
         <v>222.72</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4">
         <v>54.8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4">
         <v>167.8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4">
         <v>120</v>
       </c>
-      <c r="F11" s="6" t="n">
-        <f aca="false">SUM(C2:C23)</f>
+      <c r="F11" s="8">
+        <f>SUM(C2:C23)</f>
         <v>546.01</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>38.7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="4">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="4">
         <v>77.42</v>
       </c>
     </row>
@@ -1491,42 +1678,34 @@
   <mergeCells count="1">
     <mergeCell ref="F3:G7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="8.57"/>
+    <col min="1" max="1" width="25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="3" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -1535,154 +1714,154 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4">
         <v>65.69</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <f aca="false">SUM(B:B)</f>
+      <c r="F2" s="10">
+        <f>SUM(B:B)</f>
         <v>2382.02</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>109</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="10">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="10">
         <v>64.34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>467.75</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>631.52</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="10">
         <v>164.52</v>
       </c>
-      <c r="F10" s="10" t="n">
-        <f aca="false">SUM(C:C)</f>
+      <c r="F10" s="10">
+        <f>SUM(C:C)</f>
         <v>391.03</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="10">
         <v>76</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="10">
         <v>679.9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="10">
         <v>210.83</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>20.8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="10">
         <v>93.9</v>
       </c>
     </row>
@@ -1690,43 +1869,35 @@
   <mergeCells count="1">
     <mergeCell ref="F3:G7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="0.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.57"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.28515625" style="3" customWidth="1"/>
+    <col min="9" max="1024" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -1735,175 +1906,175 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="10">
         <v>210.83</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <f aca="false">SUM(B:B)</f>
-        <v>1069.89</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="10">
+        <f>SUM(B:B)</f>
+        <v>1359.7899999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4">
         <v>65.69</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>44</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="10">
         <v>126</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="10">
         <v>31</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="10">
         <v>34.5</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="10">
         <v>150</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <f aca="false">SUM(C:C)</f>
-        <v>639.69</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="10">
+        <f>SUM(C:C)</f>
+        <v>359.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="10">
         <v>72.8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="10">
         <v>49.59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="10">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="10">
         <v>51.81</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="10">
         <v>96.63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="10">
         <v>71.8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>250</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="10" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="10">
+        <v>289.89999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>26.8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>43.62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>84.61</v>
       </c>
     </row>
@@ -1911,13 +2082,8 @@
   <mergeCells count="1">
     <mergeCell ref="F3:G7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Produto</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>Caixa de Som PC</t>
+  </si>
+  <si>
+    <t>Tablet Expad 8</t>
+  </si>
+  <si>
+    <t>Teclado tablet</t>
+  </si>
+  <si>
+    <t>Pedidso mãe</t>
   </si>
 </sst>
 </file>
@@ -360,12 +369,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -384,6 +387,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1107,188 +1116,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="3"/>
-    <col min="7" max="7" width="22.42578125" style="3" customWidth="1"/>
-    <col min="8" max="1024" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>400</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <f>SUM(B2:B22)</f>
         <v>2809.58</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <f>SUM(C2:C22)</f>
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>64.78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>150</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>44</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>52.8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>1450</v>
       </c>
     </row>
@@ -1312,168 +1321,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="3"/>
-    <col min="7" max="7" width="21.42578125" style="3" customWidth="1"/>
-    <col min="8" max="1024" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>88.8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <f>SUM(B2:B21)</f>
         <v>1754.25</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <f>SUM(C2:C21)</f>
         <v>87.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>144.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>211.11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>43.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>20.98</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>496.84</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>33.89</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>52.84</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>155.31</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>69.28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>235.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>82.9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>87.2</v>
       </c>
     </row>
@@ -1497,180 +1506,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="3" customWidth="1"/>
-    <col min="7" max="1024" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>65.69</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <f>SUM(B2:B29)</f>
         <v>1926.15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>44</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>466.77</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>571.36</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>222.72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>54.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>167.8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>120</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f>SUM(C2:C23)</f>
         <v>546.01</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>38.700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>77.42</v>
       </c>
     </row>
@@ -1694,174 +1703,174 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="3" customWidth="1"/>
-    <col min="8" max="1024" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>65.69</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f>SUM(B:B)</f>
         <v>2382.02</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>467.75</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>631.52</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>164.52</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f>SUM(C:C)</f>
         <v>391.03</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>679.9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>210.83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>20.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>93.9</v>
       </c>
     </row>
@@ -1877,205 +1886,229 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ19"/>
+  <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.28515625" style="3" customWidth="1"/>
-    <col min="9" max="1024" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.28515625" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>210.83</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>1359.7899999999997</v>
+        <v>2465.9299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>65.69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>44</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>126</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>31</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>34.5</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>150</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f>SUM(C:C)</f>
         <v>359.69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>72.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>49.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>51.81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>96.63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>71.8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>289.89999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>26.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>43.62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>84.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="8">
+        <v>670.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="8">
+        <v>209.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="8">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Produto</t>
   </si>
@@ -289,13 +289,20 @@
   </si>
   <si>
     <t>Pedidso mãe</t>
+  </si>
+  <si>
+    <t>Cabo iPhone Aliexpress</t>
+  </si>
+  <si>
+    <t>Fonte Surface Aliexpress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;&quot;-R$&quot;* #,##0.00_-;_-&quot;R$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
   </numFmts>
@@ -367,7 +374,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -394,6 +401,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1886,16 +1895,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ22"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
@@ -1909,7 +1918,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -1926,12 +1935,12 @@
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="13">
         <v>210.83</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>2465.9299999999998</v>
+        <v>2546.4399999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,7 +1959,6 @@
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>44</v>
       </c>
@@ -1961,7 +1969,7 @@
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="13">
         <v>126</v>
       </c>
       <c r="F5" s="11"/>
@@ -1971,7 +1979,7 @@
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="13">
         <v>31</v>
       </c>
       <c r="F6" s="11"/>
@@ -1981,7 +1989,7 @@
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="13">
         <v>34.5</v>
       </c>
       <c r="F7" s="11"/>
@@ -1991,7 +1999,7 @@
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="13">
         <v>150</v>
       </c>
       <c r="F8" s="8">
@@ -2003,7 +2011,7 @@
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="13">
         <v>72.8</v>
       </c>
     </row>
@@ -2011,7 +2019,7 @@
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="13">
         <v>49.59</v>
       </c>
     </row>
@@ -2019,7 +2027,7 @@
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="13">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -2027,7 +2035,7 @@
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="13">
         <v>51.81</v>
       </c>
     </row>
@@ -2035,7 +2043,7 @@
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="13">
         <v>96.63</v>
       </c>
     </row>
@@ -2043,7 +2051,7 @@
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="13">
         <v>71.8</v>
       </c>
     </row>
@@ -2059,57 +2067,115 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="13">
         <v>289.89999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="13">
         <v>26.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="13">
         <v>43.62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="13">
         <v>84.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="13">
         <v>670.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="13">
         <v>209.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="13">
         <v>227</v>
       </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="13">
+        <v>23.27</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="13">
+        <v>57.24</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Janeiro" sheetId="3" r:id="rId3"/>
     <sheet name="Fevereiro" sheetId="4" r:id="rId4"/>
     <sheet name="Março" sheetId="5" r:id="rId5"/>
+    <sheet name="Abril" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>Produto</t>
   </si>
@@ -295,18 +296,58 @@
   </si>
   <si>
     <t>Fonte Surface Aliexpress</t>
+  </si>
+  <si>
+    <t>VT BB</t>
+  </si>
+  <si>
+    <t>Não Gasto</t>
+  </si>
+  <si>
+    <t>Amazon Kindle livro</t>
+  </si>
+  <si>
+    <t>Capa Motorola One</t>
+  </si>
+  <si>
+    <t>Steam Games Capcom</t>
+  </si>
+  <si>
+    <t>Fluke</t>
+  </si>
+  <si>
+    <t>Sandálias</t>
+  </si>
+  <si>
+    <t>Camiseta</t>
+  </si>
+  <si>
+    <t>Memoria Ram 4GB</t>
+  </si>
+  <si>
+    <t>Placa de Vídeo GTX650</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>Samsung A01</t>
+  </si>
+  <si>
+    <t>Shopee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;&quot;-R$&quot;* #,##0.00_-;_-&quot;R$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -351,6 +392,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +428,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -395,14 +449,30 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -854,6 +924,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886900" y="323850"/>
+          <a:ext cx="913590" cy="761280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="438390"/>
+          <a:ext cx="828135" cy="751920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1199,13 +1348,13 @@
       <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1214,11 +1363,11 @@
       <c r="B7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1227,11 +1376,11 @@
       <c r="B8" s="2">
         <v>150</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1240,11 +1389,11 @@
       <c r="B9" s="2">
         <v>44</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1415,10 +1564,10 @@
       <c r="B7" s="2">
         <v>20.98</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1427,8 +1576,8 @@
       <c r="B8" s="2">
         <v>496.84</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1437,8 +1586,8 @@
       <c r="B9" s="2">
         <v>33.89</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1450,8 +1599,8 @@
       <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1460,8 +1609,8 @@
       <c r="B11" s="2">
         <v>155.31</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1560,10 +1709,10 @@
       <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1572,8 +1721,8 @@
       <c r="C4" s="2">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1582,8 +1731,8 @@
       <c r="C5" s="2">
         <v>44</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1592,8 +1741,8 @@
       <c r="B6" s="2">
         <v>466.77</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1602,8 +1751,8 @@
       <c r="B7" s="2">
         <v>571.36</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1707,7 +1856,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F3" sqref="F3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,10 +1908,10 @@
       <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1771,8 +1920,8 @@
       <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1781,8 +1930,8 @@
       <c r="B5" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1791,8 +1940,8 @@
       <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1801,8 +1950,8 @@
       <c r="B7" s="8">
         <v>467.75</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1897,14 +2046,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="11" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
@@ -1918,7 +2067,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -1935,7 +2084,7 @@
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>210.83</v>
       </c>
       <c r="F2" s="8">
@@ -1950,10 +2099,10 @@
       <c r="C3" s="2">
         <v>65.69</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1962,44 +2111,44 @@
       <c r="C4" s="2">
         <v>44</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>126</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>31</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>34.5</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>150</v>
       </c>
       <c r="F8" s="8">
@@ -2011,7 +2160,7 @@
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>72.8</v>
       </c>
     </row>
@@ -2019,7 +2168,7 @@
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>49.59</v>
       </c>
     </row>
@@ -2027,7 +2176,7 @@
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -2035,7 +2184,7 @@
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>51.81</v>
       </c>
     </row>
@@ -2043,7 +2192,7 @@
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>96.63</v>
       </c>
     </row>
@@ -2051,7 +2200,7 @@
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>71.8</v>
       </c>
     </row>
@@ -2067,7 +2216,7 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>289.89999999999998</v>
       </c>
     </row>
@@ -2075,7 +2224,7 @@
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>26.8</v>
       </c>
     </row>
@@ -2083,7 +2232,7 @@
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>43.62</v>
       </c>
     </row>
@@ -2091,98 +2240,261 @@
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>84.61</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>670.05</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>209.09</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>227</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>23.27</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>57.24</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="12"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:G7"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1637.27</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>2029.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="14">
+        <v>206.71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="14">
+        <v>18.82</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="14">
+        <v>28.8</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="14">
+        <v>51.64</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="14">
+        <v>12.99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14">
+        <v>73.459999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="14">
+        <v>98.29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="14">
+        <v>364.39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>721.67000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="14">
+        <v>258.99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Fevereiro" sheetId="4" r:id="rId4"/>
     <sheet name="Março" sheetId="5" r:id="rId5"/>
     <sheet name="Abril" sheetId="6" r:id="rId6"/>
+    <sheet name="Maio" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t>Produto</t>
   </si>
@@ -335,6 +336,27 @@
   </si>
   <si>
     <t>Shopee</t>
+  </si>
+  <si>
+    <t>Compras 04/2021</t>
+  </si>
+  <si>
+    <t>Compras 05/2021</t>
+  </si>
+  <si>
+    <t>Steam Marvel</t>
+  </si>
+  <si>
+    <t>Pelicila motorola gshield</t>
+  </si>
+  <si>
+    <t>Pelicila motorola Mercado Livre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra PC Compact </t>
+  </si>
+  <si>
+    <t>BB VT</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1025,122 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323115</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115375" y="342900"/>
+          <a:ext cx="913590" cy="761280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1971135</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="390765"/>
+          <a:ext cx="828135" cy="751920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="438390"/>
+          <a:ext cx="828135" cy="751920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1656,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ17"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1837,7 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(B2:B29)</f>
-        <v>1926.15</v>
+        <v>2136.98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,6 +1977,14 @@
       </c>
       <c r="C17" s="2">
         <v>77.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="8">
+        <v>210.83</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +2002,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2193,7 @@
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2235,7 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(B:B)</f>
-        <v>2546.4399999999996</v>
+        <v>2757.2699999999995</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,6 +2437,12 @@
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="8">
+        <v>210.83</v>
+      </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2381,7 +2533,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>2029.69</v>
+        <v>2240.52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2395,7 +2547,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="G3" s="19"/>
     </row>
@@ -2487,6 +2639,178 @@
         <v>258.99</v>
       </c>
       <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8">
+        <v>210.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>2532.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1637.27</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>210.83</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="13">
+        <v>278.89999999999998</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="13">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="13">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13">
+        <v>60</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="13">
+        <v>6.14</v>
+      </c>
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>462.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
+        <v>98.29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14">
+        <v>364.39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="14">
+        <v>275.33</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>Produto</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>BB VT</t>
+  </si>
+  <si>
+    <t>Promofarma</t>
+  </si>
+  <si>
+    <t>Steam Games</t>
   </si>
 </sst>
 </file>
@@ -2661,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2698,7 +2704,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>2532.31</v>
+        <v>3134.62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,7 +2781,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>462.68</v>
+        <v>98.29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2794,9 +2800,8 @@
       <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14">
-        <v>364.39</v>
+      <c r="B12" s="14">
+        <v>390.5</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -2812,6 +2817,30 @@
       <c r="C13" s="14"/>
       <c r="D13" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="13">
+        <v>118.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="13">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Março" sheetId="5" r:id="rId5"/>
     <sheet name="Abril" sheetId="6" r:id="rId6"/>
     <sheet name="Maio" sheetId="7" r:id="rId7"/>
+    <sheet name="Junho" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
   <si>
     <t>Produto</t>
   </si>
@@ -363,6 +364,45 @@
   </si>
   <si>
     <t>Steam Games</t>
+  </si>
+  <si>
+    <t>Aliexpress - Mãe</t>
+  </si>
+  <si>
+    <t>Loteria</t>
+  </si>
+  <si>
+    <t>Samsung A01 - ML</t>
+  </si>
+  <si>
+    <t>Pelicula Samsung A01</t>
+  </si>
+  <si>
+    <t>Mercado Livre</t>
+  </si>
+  <si>
+    <t>Teclado k-gamer</t>
+  </si>
+  <si>
+    <t>Presente do Mitsuaki</t>
+  </si>
+  <si>
+    <t>PC Stick Ultra Compact</t>
+  </si>
+  <si>
+    <t>Gabinete PC</t>
+  </si>
+  <si>
+    <t>Memória 4GB 1333Mhz</t>
+  </si>
+  <si>
+    <t>Mouse Bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carteira </t>
+  </si>
+  <si>
+    <t>Desodorante Kaik</t>
   </si>
 </sst>
 </file>
@@ -375,7 +415,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -433,6 +473,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -456,7 +502,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -493,6 +539,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,6 +1199,122 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189765</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477325" y="180975"/>
+          <a:ext cx="913590" cy="789855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18510</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="219315"/>
+          <a:ext cx="971010" cy="780495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="438390"/>
+          <a:ext cx="971010" cy="780495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1492,13 +1660,13 @@
       <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1507,11 +1675,11 @@
       <c r="B7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1520,11 +1688,11 @@
       <c r="B8" s="2">
         <v>150</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1533,11 +1701,11 @@
       <c r="B9" s="2">
         <v>44</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1708,10 +1876,10 @@
       <c r="B7" s="2">
         <v>20.98</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1720,8 +1888,8 @@
       <c r="B8" s="2">
         <v>496.84</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1730,8 +1898,8 @@
       <c r="B9" s="2">
         <v>33.89</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1743,8 +1911,8 @@
       <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1753,8 +1921,8 @@
       <c r="B11" s="2">
         <v>155.31</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1853,10 +2021,10 @@
       <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1865,8 +2033,8 @@
       <c r="C4" s="2">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1875,8 +2043,8 @@
       <c r="C5" s="2">
         <v>44</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1885,8 +2053,8 @@
       <c r="B6" s="2">
         <v>466.77</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1895,8 +2063,8 @@
       <c r="B7" s="2">
         <v>571.36</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2060,10 +2228,10 @@
       <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2072,8 +2240,8 @@
       <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2082,8 +2250,8 @@
       <c r="B5" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2092,8 +2260,8 @@
       <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2102,8 +2270,8 @@
       <c r="B7" s="8">
         <v>467.75</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2251,10 +2419,10 @@
       <c r="C3" s="2">
         <v>65.69</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2263,8 +2431,8 @@
       <c r="C4" s="2">
         <v>44</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2273,8 +2441,8 @@
       <c r="B5" s="11">
         <v>126</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2283,8 +2451,8 @@
       <c r="B6" s="11">
         <v>31</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2293,8 +2461,8 @@
       <c r="B7" s="11">
         <v>34.5</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2499,7 +2667,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2552,10 +2720,10 @@
       <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2564,8 +2732,8 @@
       <c r="B4" s="14">
         <v>18.82</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2574,8 +2742,8 @@
       <c r="B5" s="14">
         <v>28.8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2584,8 +2752,8 @@
       <c r="B6" s="14">
         <v>51.64</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2597,8 +2765,8 @@
       <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2667,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2704,14 +2872,14 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>3134.62</v>
+        <v>3988.06</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2720,8 +2888,8 @@
       <c r="B4" s="13">
         <v>1637.27</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2730,8 +2898,8 @@
       <c r="B5" s="8">
         <v>210.83</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2740,8 +2908,8 @@
       <c r="B6" s="13">
         <v>278.89999999999998</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2750,8 +2918,8 @@
       <c r="B7" s="13">
         <v>33.880000000000003</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2841,6 +3009,44 @@
       </c>
       <c r="B16" s="13">
         <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="13">
+        <v>450</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="13">
+        <v>29.56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="13">
+        <v>79.98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="13">
+        <v>293.89999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2850,4 +3056,143 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="0.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="19">
+        <v>184.18</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9">
+        <f>SUM(B:B)</f>
+        <v>267.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="13">
+        <v>51.84</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="13">
+        <v>31.5</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="13">
+        <v>250</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="13">
+        <v>124</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="13">
+        <v>82</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>Produto</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Desodorante Kaik</t>
+  </si>
+  <si>
+    <t>Cooler Led</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
@@ -2366,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
@@ -2838,7 +2841,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3060,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3107,7 +3110,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="9">
         <f>SUM(B:B)</f>
-        <v>267.52</v>
+        <v>1071.02</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3136,8 +3139,8 @@
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="13">
-        <v>250</v>
+      <c r="B5" s="13">
+        <v>339.49</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -3146,8 +3149,8 @@
       <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="13">
-        <v>124</v>
+      <c r="B6" s="13">
+        <v>123</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -3156,8 +3159,8 @@
       <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="13">
-        <v>82</v>
+      <c r="B7" s="13">
+        <v>81.72</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3182,9 +3185,23 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="13">
+        <v>48.46</v>
+      </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>546</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="13">
+        <v>210.83</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
   <si>
     <t>Produto</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Cooler Led</t>
+  </si>
+  <si>
+    <t>Colonia Kaiak Urbe</t>
+  </si>
+  <si>
+    <t>PES 2021 Steam</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -550,6 +556,7 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,16 +1213,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2066999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>189765</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>132630</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>113580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1228,8 +1235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477325" y="180975"/>
-          <a:ext cx="913590" cy="789855"/>
+          <a:off x="8591624" y="323850"/>
+          <a:ext cx="952425" cy="980355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,15 +1251,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28815</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>18510</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161610</xdr:rowOff>
+      <xdr:colOff>37560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1265,45 +1272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457825" y="219315"/>
-          <a:ext cx="971010" cy="780495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>56610</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6096000" y="438390"/>
-          <a:ext cx="971010" cy="780495"/>
+          <a:off x="5667375" y="457200"/>
+          <a:ext cx="894810" cy="742636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1663,13 +1633,13 @@
       <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1678,11 +1648,11 @@
       <c r="B7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1691,11 +1661,11 @@
       <c r="B8" s="2">
         <v>150</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1704,11 +1674,11 @@
       <c r="B9" s="2">
         <v>44</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1879,10 +1849,10 @@
       <c r="B7" s="2">
         <v>20.98</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1891,8 +1861,8 @@
       <c r="B8" s="2">
         <v>496.84</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1901,8 +1871,8 @@
       <c r="B9" s="2">
         <v>33.89</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1914,8 +1884,8 @@
       <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1924,8 +1894,8 @@
       <c r="B11" s="2">
         <v>155.31</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2024,10 +1994,10 @@
       <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2036,8 +2006,8 @@
       <c r="C4" s="2">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2046,8 +2016,8 @@
       <c r="C5" s="2">
         <v>44</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2056,8 +2026,8 @@
       <c r="B6" s="2">
         <v>466.77</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2066,8 +2036,8 @@
       <c r="B7" s="2">
         <v>571.36</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2231,10 +2201,10 @@
       <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2243,8 +2213,8 @@
       <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2253,8 +2223,8 @@
       <c r="B5" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2263,8 +2233,8 @@
       <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2273,8 +2243,8 @@
       <c r="B7" s="8">
         <v>467.75</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2422,10 +2392,10 @@
       <c r="C3" s="2">
         <v>65.69</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2434,8 +2404,8 @@
       <c r="C4" s="2">
         <v>44</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2444,8 +2414,8 @@
       <c r="B5" s="11">
         <v>126</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2454,8 +2424,8 @@
       <c r="B6" s="11">
         <v>31</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2464,8 +2434,8 @@
       <c r="B7" s="11">
         <v>34.5</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2723,10 +2693,10 @@
       <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2735,8 +2705,8 @@
       <c r="B4" s="14">
         <v>18.82</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2745,8 +2715,8 @@
       <c r="B5" s="14">
         <v>28.8</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2755,8 +2725,8 @@
       <c r="B6" s="14">
         <v>51.64</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2768,8 +2738,8 @@
       <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2879,10 +2849,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2891,8 +2861,8 @@
       <c r="B4" s="13">
         <v>1637.27</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2901,8 +2871,8 @@
       <c r="B5" s="8">
         <v>210.83</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2911,8 +2881,8 @@
       <c r="B6" s="13">
         <v>278.89999999999998</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2921,8 +2891,8 @@
       <c r="B7" s="13">
         <v>33.880000000000003</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3063,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3110,7 +3080,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="9">
         <f>SUM(B:B)</f>
-        <v>1071.02</v>
+        <v>1239.52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,10 +3090,10 @@
       <c r="B3" s="13">
         <v>51.84</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3132,8 +3102,8 @@
       <c r="B4" s="13">
         <v>31.5</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3142,8 +3112,8 @@
       <c r="B5" s="13">
         <v>339.49</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3152,8 +3122,8 @@
       <c r="B6" s="13">
         <v>123</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3162,23 +3132,23 @@
       <c r="B7" s="13">
         <v>81.72</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="13">
-        <v>46</v>
+      <c r="B8" s="13">
+        <v>45.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="13">
-        <v>44</v>
+      <c r="B9" s="13">
+        <v>37.799999999999997</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>90</v>
@@ -3193,7 +3163,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3202,6 +3172,22 @@
       </c>
       <c r="B11" s="13">
         <v>210.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="20">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="13">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
   <si>
     <t>Produto</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>PES 2021 Steam</t>
+  </si>
+  <si>
+    <t>Cinta modeladora</t>
+  </si>
+  <si>
+    <t>Mini ventilador</t>
   </si>
 </sst>
 </file>
@@ -3033,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3163,7 +3169,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>99</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3188,6 +3194,22 @@
       </c>
       <c r="C13" s="13">
         <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="13">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -3042,7 +3042,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3086,7 +3086,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="9">
         <f>SUM(B:B)</f>
-        <v>1239.52</v>
+        <v>1338.52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>362</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
       <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="13">
+      <c r="B13" s="13">
         <v>99</v>
       </c>
     </row>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Abril" sheetId="6" r:id="rId6"/>
     <sheet name="Maio" sheetId="7" r:id="rId7"/>
     <sheet name="Junho" sheetId="8" r:id="rId8"/>
+    <sheet name="Julho" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
   <si>
     <t>Produto</t>
   </si>
@@ -418,6 +419,18 @@
   </si>
   <si>
     <t>Mini ventilador</t>
+  </si>
+  <si>
+    <t>Steam - 4 jogos</t>
+  </si>
+  <si>
+    <t>Compras 07/2021</t>
+  </si>
+  <si>
+    <t>Compras 06/2021</t>
+  </si>
+  <si>
+    <t>Playstore</t>
   </si>
 </sst>
 </file>
@@ -1294,6 +1307,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334449" y="333375"/>
+          <a:ext cx="952425" cy="980355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28035</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="447675"/>
+          <a:ext cx="894810" cy="742636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3041,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3097,7 +3189,7 @@
         <v>51.84</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G3" s="22"/>
     </row>
@@ -3220,4 +3312,106 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="13">
+        <v>124.9</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>218.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="13">
+        <v>75.56</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="13">
+        <v>17.79</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="137">
   <si>
     <t>Produto</t>
   </si>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>Playstore</t>
+  </si>
+  <si>
+    <t>Controle Gun Nintendo Wii</t>
+  </si>
+  <si>
+    <t>Bateria Carregador Wii</t>
+  </si>
+  <si>
+    <t>Case iPhone 6s</t>
+  </si>
+  <si>
+    <t>Bateria iPhone 6s</t>
   </si>
 </sst>
 </file>
@@ -3134,7 +3146,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3319,12 +3331,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="13" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
@@ -3359,7 +3371,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>218.25</v>
+        <v>720.16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3385,18 +3397,50 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="13">
+        <v>48.9</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="13">
+        <v>77.47</v>
+      </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="13">
+        <v>83.21</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="13">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="13">
+        <v>210.83</v>
+      </c>
       <c r="F9" s="17" t="s">
         <v>90</v>
       </c>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Maio" sheetId="7" r:id="rId7"/>
     <sheet name="Junho" sheetId="8" r:id="rId8"/>
     <sheet name="Julho" sheetId="9" r:id="rId9"/>
+    <sheet name="Agosto" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
   <si>
     <t>Produto</t>
   </si>
@@ -443,6 +444,36 @@
   </si>
   <si>
     <t>Bateria iPhone 6s</t>
+  </si>
+  <si>
+    <t>Colar akatsuki</t>
+  </si>
+  <si>
+    <t>Pulseira akatsuki</t>
+  </si>
+  <si>
+    <t>Compras 08/2021</t>
+  </si>
+  <si>
+    <t>Fone bluetooth</t>
+  </si>
+  <si>
+    <t>Headset bluetooth</t>
+  </si>
+  <si>
+    <t>Controle USB Xbox -&gt; PC</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Chassi iPhone 6s</t>
+  </si>
+  <si>
+    <t>Caixa loterias</t>
+  </si>
+  <si>
+    <t>Sony Xperia L4</t>
   </si>
 </sst>
 </file>
@@ -678,6 +709,85 @@
         <a:xfrm>
           <a:off x="5564880" y="1009440"/>
           <a:ext cx="828000" cy="847080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28035</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="447675"/>
+          <a:ext cx="894810" cy="742636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>75480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="257175"/>
+          <a:ext cx="952425" cy="980355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,6 +1974,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>1461.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="13">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="13">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="13">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="13">
+        <v>210.83</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="13">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="13">
+        <v>157.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="13">
+        <v>39</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1054.5999999999999</v>
+      </c>
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ15"/>
@@ -3330,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>Produto</t>
   </si>
@@ -474,6 +474,24 @@
   </si>
   <si>
     <t>Sony Xperia L4</t>
+  </si>
+  <si>
+    <t>Pelicula Motorola One</t>
+  </si>
+  <si>
+    <t>S91Loja</t>
+  </si>
+  <si>
+    <t>Conta Luz</t>
+  </si>
+  <si>
+    <t>Conta Telefone</t>
+  </si>
+  <si>
+    <t>Anel</t>
+  </si>
+  <si>
+    <t>Pedidos mãe</t>
   </si>
 </sst>
 </file>
@@ -1976,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2022,7 +2040,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>1461.86</v>
+        <v>1905.6299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2045,7 +2063,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="13">
-        <v>120</v>
+        <v>125.51</v>
       </c>
       <c r="D4" t="s">
         <v>99</v>
@@ -2117,7 +2135,56 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>400</v>
+        <v>670.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="13">
+        <v>39.97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="13">
+        <v>15.34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="13">
+        <v>263.8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3663,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3636,7 +3703,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>720.16</v>
+        <v>642.68999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3675,7 +3742,7 @@
       <c r="A6" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="13">
+      <c r="C6" s="13">
         <v>77.47</v>
       </c>
       <c r="F6" s="22"/>
@@ -3713,7 +3780,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>0</v>
+        <v>77.47</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
   <si>
     <t>Produto</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>Pedidos mãe</t>
+  </si>
+  <si>
+    <t>Correios</t>
+  </si>
+  <si>
+    <t>Taxa Sony L4</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2046,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>1905.6299999999999</v>
+        <v>2328.5300000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2135,7 +2141,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>670.85</v>
+        <v>420.84999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2161,7 +2167,7 @@
       <c r="A13" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="13">
+      <c r="B13" s="13">
         <v>250</v>
       </c>
     </row>
@@ -2185,6 +2191,17 @@
       </c>
       <c r="D15" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="13">
+        <v>172.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\Variado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cezar\projetos\Variado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="157">
   <si>
     <t>Produto</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>Taxa Sony L4</t>
+  </si>
+  <si>
+    <t>Pilha AAA</t>
+  </si>
+  <si>
+    <t>Cartão SD 32 GB</t>
   </si>
 </sst>
 </file>
@@ -2000,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2046,7 +2052,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>2328.5300000000002</v>
+        <v>2430.1500000000005</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2202,6 +2208,28 @@
       </c>
       <c r="D16" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="13">
+        <v>51.82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="13">
+        <v>49.8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Junho" sheetId="8" r:id="rId8"/>
     <sheet name="Julho" sheetId="9" r:id="rId9"/>
     <sheet name="Agosto" sheetId="10" r:id="rId10"/>
+    <sheet name="Setembro" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="159">
   <si>
     <t>Produto</t>
   </si>
@@ -498,6 +499,18 @@
   </si>
   <si>
     <t>Taxa Sony L4</t>
+  </si>
+  <si>
+    <t>Compras 09/2021</t>
+  </si>
+  <si>
+    <t>Roupas (camisas e calça)</t>
+  </si>
+  <si>
+    <t>Caedu</t>
+  </si>
+  <si>
+    <t>Fonte Surface Pro</t>
   </si>
 </sst>
 </file>
@@ -812,6 +825,85 @@
         <a:xfrm>
           <a:off x="8162925" y="257175"/>
           <a:ext cx="952425" cy="980355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28035</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="447675"/>
+          <a:ext cx="1294860" cy="771211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="371475"/>
+          <a:ext cx="952425" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2002,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2202,6 +2294,111 @@
       </c>
       <c r="D16" t="s">
         <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13">
+        <v>225.71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>601.54000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="13">
+        <v>165</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="13">
+        <v>210.83</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Julho" sheetId="9" r:id="rId9"/>
     <sheet name="Agosto" sheetId="10" r:id="rId10"/>
     <sheet name="Setembro" sheetId="11" r:id="rId11"/>
+    <sheet name="Outubro" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="176">
   <si>
     <t>Produto</t>
   </si>
@@ -511,6 +512,57 @@
   </si>
   <si>
     <t>Fonte Surface Pro</t>
+  </si>
+  <si>
+    <t>Compras 10/2021</t>
+  </si>
+  <si>
+    <t>Roupas mãe</t>
+  </si>
+  <si>
+    <t>Capas Q20</t>
+  </si>
+  <si>
+    <t>Filtro e torneira</t>
+  </si>
+  <si>
+    <t>Película Q20</t>
+  </si>
+  <si>
+    <t>Teclado &amp; Mouse</t>
+  </si>
+  <si>
+    <t>Mini PC</t>
+  </si>
+  <si>
+    <t>Ulefone Note 6P</t>
+  </si>
+  <si>
+    <t>Pelucia Livia</t>
+  </si>
+  <si>
+    <t>Irrigador Portátil</t>
+  </si>
+  <si>
+    <t>Fone Bluetooth</t>
+  </si>
+  <si>
+    <t>Capa Positivo Q20</t>
+  </si>
+  <si>
+    <t>Squeeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protetor Orelha </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Palmilha Tenis</t>
+  </si>
+  <si>
+    <t>Webcam</t>
   </si>
 </sst>
 </file>
@@ -523,7 +575,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -587,6 +639,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -610,7 +668,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -661,6 +719,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -844,15 +908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28035</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28261</xdr:rowOff>
+      <xdr:colOff>132810</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -865,8 +929,87 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="447675"/>
-          <a:ext cx="1294860" cy="771211"/>
+          <a:off x="4600575" y="409575"/>
+          <a:ext cx="1113885" cy="771211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="352425"/>
+          <a:ext cx="952425" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1342485</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="381000"/>
+          <a:ext cx="1113885" cy="771211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,15 +1024,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228525</xdr:colOff>
+      <xdr:colOff>333300</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -902,8 +1045,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419975" y="371475"/>
-          <a:ext cx="952425" cy="885825"/>
+          <a:off x="7600950" y="333375"/>
+          <a:ext cx="952425" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2353,7 +2496,7 @@
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>601.54000000000008</v>
+        <v>1157.9100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2379,16 +2522,51 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="13">
+        <v>334.44</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="13">
+        <v>48.12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="13">
+        <v>83.91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="13">
+        <v>89.9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F9" s="17" t="s">
@@ -2407,6 +2585,200 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="23">
+        <v>210.83</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>492.55999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="13">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="13">
+        <v>900</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="13">
+        <v>498</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="23">
+        <v>130.07</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="13">
+        <v>82.62</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="24">
+        <v>123.66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="13">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="13">
+        <v>89</v>
+      </c>
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>2000.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="13">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
   <si>
     <t>Produto</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>Webcam</t>
+  </si>
+  <si>
+    <t>Almofadas headset</t>
+  </si>
+  <si>
+    <t>ganhei presente</t>
   </si>
 </sst>
 </file>
@@ -714,17 +720,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2112,13 +2118,13 @@
       <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2127,11 +2133,11 @@
       <c r="B7" s="2">
         <v>56</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2140,11 +2146,11 @@
       <c r="B8" s="2">
         <v>150</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2153,11 +2159,11 @@
       <c r="B9" s="2">
         <v>44</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2294,10 +2300,10 @@
       <c r="D3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2309,8 +2315,8 @@
       <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2322,8 +2328,8 @@
       <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2332,8 +2338,8 @@
       <c r="B6" s="13">
         <v>210.83</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2345,8 +2351,8 @@
       <c r="D7" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2506,10 +2512,10 @@
       <c r="B3" s="13">
         <v>165</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2518,8 +2524,8 @@
       <c r="B4" s="13">
         <v>210.83</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2531,8 +2537,8 @@
       <c r="D5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2544,8 +2550,8 @@
       <c r="D6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2557,8 +2563,8 @@
       <c r="D7" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2590,16 +2596,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -2628,12 +2634,12 @@
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>210.83</v>
       </c>
       <c r="F2" s="13">
         <f>SUM(B:B)</f>
-        <v>492.55999999999995</v>
+        <v>615.52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2646,10 +2652,10 @@
       <c r="D3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2658,8 +2664,8 @@
       <c r="C4" s="13">
         <v>900</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2671,37 +2677,37 @@
       <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>130.07</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="13">
+      <c r="B7" s="13">
         <v>82.62</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="24">
+      <c r="C8" s="22">
         <v>123.66</v>
       </c>
       <c r="D8" t="s">
@@ -2712,14 +2718,14 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>173</v>
       </c>
       <c r="C9" s="13">
         <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>90</v>
@@ -2734,18 +2740,21 @@
       </c>
       <c r="F10" s="13">
         <f>SUM(C:C)</f>
-        <v>2000.62</v>
+        <v>1911.66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="13">
         <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2760,7 +2769,7 @@
       <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="13">
+      <c r="B13" s="13">
         <v>57</v>
       </c>
     </row>
@@ -2768,8 +2777,16 @@
       <c r="A14" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="13">
-        <v>73</v>
+      <c r="B14" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="21">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +2894,10 @@
       <c r="B7" s="2">
         <v>20.98</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2889,8 +2906,8 @@
       <c r="B8" s="2">
         <v>496.84</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2899,8 +2916,8 @@
       <c r="B9" s="2">
         <v>33.89</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2912,8 +2929,8 @@
       <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2922,8 +2939,8 @@
       <c r="B11" s="2">
         <v>155.31</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3022,10 +3039,10 @@
       <c r="B3" s="2">
         <v>65</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3034,8 +3051,8 @@
       <c r="C4" s="2">
         <v>74.900000000000006</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3044,8 +3061,8 @@
       <c r="C5" s="2">
         <v>44</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3054,8 +3071,8 @@
       <c r="B6" s="2">
         <v>466.77</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3064,8 +3081,8 @@
       <c r="B7" s="2">
         <v>571.36</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3229,10 +3246,10 @@
       <c r="C3" s="2">
         <v>44</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3241,8 +3258,8 @@
       <c r="C4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3251,8 +3268,8 @@
       <c r="B5" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3261,8 +3278,8 @@
       <c r="C6" s="8">
         <v>64.34</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3271,8 +3288,8 @@
       <c r="B7" s="8">
         <v>467.75</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3420,10 +3437,10 @@
       <c r="C3" s="2">
         <v>65.69</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3432,8 +3449,8 @@
       <c r="C4" s="2">
         <v>44</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3442,8 +3459,8 @@
       <c r="B5" s="11">
         <v>126</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3452,8 +3469,8 @@
       <c r="B6" s="11">
         <v>31</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3462,8 +3479,8 @@
       <c r="B7" s="11">
         <v>34.5</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3721,10 +3738,10 @@
       <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3733,8 +3750,8 @@
       <c r="B4" s="14">
         <v>18.82</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3743,8 +3760,8 @@
       <c r="B5" s="14">
         <v>28.8</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3753,8 +3770,8 @@
       <c r="B6" s="14">
         <v>51.64</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3766,8 +3783,8 @@
       <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3877,10 +3894,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3889,8 +3906,8 @@
       <c r="B4" s="13">
         <v>1637.27</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3899,8 +3916,8 @@
       <c r="B5" s="8">
         <v>210.83</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3909,8 +3926,8 @@
       <c r="B6" s="13">
         <v>278.89999999999998</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3919,8 +3936,8 @@
       <c r="B7" s="13">
         <v>33.880000000000003</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4118,10 +4135,10 @@
       <c r="B3" s="13">
         <v>51.84</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4130,8 +4147,8 @@
       <c r="B4" s="13">
         <v>31.5</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4140,8 +4157,8 @@
       <c r="B5" s="13">
         <v>339.49</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4150,8 +4167,8 @@
       <c r="B6" s="13">
         <v>123</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4160,8 +4177,8 @@
       <c r="B7" s="13">
         <v>81.72</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4299,10 +4316,10 @@
       <c r="B3" s="13">
         <v>75.56</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4311,8 +4328,8 @@
       <c r="B4" s="13">
         <v>17.79</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4321,8 +4338,8 @@
       <c r="B5" s="13">
         <v>48.9</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4331,8 +4348,8 @@
       <c r="C6" s="13">
         <v>77.47</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4341,8 +4358,8 @@
       <c r="B7" s="13">
         <v>83.21</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/Variado/Gastos2020-2021.xlsx
+++ b/Variado/Gastos2020-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Novembro" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Agosto" sheetId="10" r:id="rId10"/>
     <sheet name="Setembro" sheetId="11" r:id="rId11"/>
     <sheet name="Outubro" sheetId="12" r:id="rId12"/>
+    <sheet name="Novembro21" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
   <si>
     <t>Produto</t>
   </si>
@@ -569,6 +570,30 @@
   </si>
   <si>
     <t>ganhei presente</t>
+  </si>
+  <si>
+    <t>Compras 11/2021</t>
+  </si>
+  <si>
+    <t>Cartucho HP 122</t>
+  </si>
+  <si>
+    <t>Samsung A41</t>
+  </si>
+  <si>
+    <t>LojaHP</t>
+  </si>
+  <si>
+    <t>Fonte Surface Pro Tipo C</t>
+  </si>
+  <si>
+    <t>Baralho</t>
+  </si>
+  <si>
+    <t>Mascara Shindo</t>
+  </si>
+  <si>
+    <t>Capa Samsung A41</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1077,85 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7600950" y="333375"/>
+          <a:ext cx="952425" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104235</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="419100"/>
+          <a:ext cx="1113885" cy="771211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="371475"/>
           <a:ext cx="952425" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2598,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2796,6 +2900,152 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="21">
+        <v>210.83</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(B:B)</f>
+        <v>1760.6100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="13">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1169.25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="13">
+        <v>41.17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="13">
+        <v>33.79</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="13">
+        <v>131.63999999999999</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="13">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="13">
+        <f>SUM(C:C)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
